--- a/school_excel_data/学生Insert用/grade1_students.xlsx
+++ b/school_excel_data/学生Insert用/grade1_students.xlsx
@@ -2913,7 +2913,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A335" sqref="A335:F336"/>
+      <selection activeCell="F2" sqref="F2:F336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2958,7 +2958,7 @@
         <v>501</v>
       </c>
       <c r="F2" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2978,7 +2978,7 @@
         <v>502</v>
       </c>
       <c r="F3" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2998,7 +2998,7 @@
         <v>503</v>
       </c>
       <c r="F4" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3018,7 +3018,7 @@
         <v>504</v>
       </c>
       <c r="F5" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -3038,7 +3038,7 @@
         <v>505</v>
       </c>
       <c r="F6" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -3058,7 +3058,7 @@
         <v>501</v>
       </c>
       <c r="F7" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -3078,7 +3078,7 @@
         <v>502</v>
       </c>
       <c r="F8" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -3098,7 +3098,7 @@
         <v>503</v>
       </c>
       <c r="F9" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -3118,7 +3118,7 @@
         <v>504</v>
       </c>
       <c r="F10" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -3138,7 +3138,7 @@
         <v>505</v>
       </c>
       <c r="F11" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -3158,7 +3158,7 @@
         <v>501</v>
       </c>
       <c r="F12" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -3178,7 +3178,7 @@
         <v>502</v>
       </c>
       <c r="F13" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -3198,7 +3198,7 @@
         <v>503</v>
       </c>
       <c r="F14" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3218,7 +3218,7 @@
         <v>504</v>
       </c>
       <c r="F15" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -3238,7 +3238,7 @@
         <v>505</v>
       </c>
       <c r="F16" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -3258,7 +3258,7 @@
         <v>501</v>
       </c>
       <c r="F17" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -3278,7 +3278,7 @@
         <v>502</v>
       </c>
       <c r="F18" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -3298,7 +3298,7 @@
         <v>503</v>
       </c>
       <c r="F19" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -3318,7 +3318,7 @@
         <v>504</v>
       </c>
       <c r="F20" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -3338,7 +3338,7 @@
         <v>505</v>
       </c>
       <c r="F21" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -3358,7 +3358,7 @@
         <v>501</v>
       </c>
       <c r="F22" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -3378,7 +3378,7 @@
         <v>502</v>
       </c>
       <c r="F23" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -3398,7 +3398,7 @@
         <v>503</v>
       </c>
       <c r="F24" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -3418,7 +3418,7 @@
         <v>504</v>
       </c>
       <c r="F25" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -3438,7 +3438,7 @@
         <v>505</v>
       </c>
       <c r="F26" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -3458,7 +3458,7 @@
         <v>501</v>
       </c>
       <c r="F27" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -3478,7 +3478,7 @@
         <v>502</v>
       </c>
       <c r="F28" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -3498,7 +3498,7 @@
         <v>503</v>
       </c>
       <c r="F29" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -3518,7 +3518,7 @@
         <v>504</v>
       </c>
       <c r="F30" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -3538,7 +3538,7 @@
         <v>505</v>
       </c>
       <c r="F31" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -3558,7 +3558,7 @@
         <v>501</v>
       </c>
       <c r="F32" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -3578,7 +3578,7 @@
         <v>502</v>
       </c>
       <c r="F33" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -3598,7 +3598,7 @@
         <v>503</v>
       </c>
       <c r="F34" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -3618,7 +3618,7 @@
         <v>504</v>
       </c>
       <c r="F35" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -3638,7 +3638,7 @@
         <v>505</v>
       </c>
       <c r="F36" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -3658,7 +3658,7 @@
         <v>501</v>
       </c>
       <c r="F37" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -3678,7 +3678,7 @@
         <v>502</v>
       </c>
       <c r="F38" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -3698,7 +3698,7 @@
         <v>503</v>
       </c>
       <c r="F39" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -3718,7 +3718,7 @@
         <v>504</v>
       </c>
       <c r="F40" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -3738,7 +3738,7 @@
         <v>505</v>
       </c>
       <c r="F41" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -3758,7 +3758,7 @@
         <v>501</v>
       </c>
       <c r="F42" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -3778,7 +3778,7 @@
         <v>502</v>
       </c>
       <c r="F43" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -3798,7 +3798,7 @@
         <v>503</v>
       </c>
       <c r="F44" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -3818,7 +3818,7 @@
         <v>504</v>
       </c>
       <c r="F45" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -3838,7 +3838,7 @@
         <v>505</v>
       </c>
       <c r="F46" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -3858,7 +3858,7 @@
         <v>501</v>
       </c>
       <c r="F47" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -3878,7 +3878,7 @@
         <v>502</v>
       </c>
       <c r="F48" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -3898,7 +3898,7 @@
         <v>503</v>
       </c>
       <c r="F49" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -3918,7 +3918,7 @@
         <v>504</v>
       </c>
       <c r="F50" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -3938,7 +3938,7 @@
         <v>505</v>
       </c>
       <c r="F51" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -3958,7 +3958,7 @@
         <v>501</v>
       </c>
       <c r="F52" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -3978,7 +3978,7 @@
         <v>502</v>
       </c>
       <c r="F53" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -3998,7 +3998,7 @@
         <v>503</v>
       </c>
       <c r="F54" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -4018,7 +4018,7 @@
         <v>504</v>
       </c>
       <c r="F55" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -4038,7 +4038,7 @@
         <v>505</v>
       </c>
       <c r="F56" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -4058,7 +4058,7 @@
         <v>501</v>
       </c>
       <c r="F57" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -4078,7 +4078,7 @@
         <v>502</v>
       </c>
       <c r="F58" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -4098,7 +4098,7 @@
         <v>503</v>
       </c>
       <c r="F59" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -4118,7 +4118,7 @@
         <v>504</v>
       </c>
       <c r="F60" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -4138,7 +4138,7 @@
         <v>505</v>
       </c>
       <c r="F61" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -4158,7 +4158,7 @@
         <v>501</v>
       </c>
       <c r="F62" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -4178,7 +4178,7 @@
         <v>502</v>
       </c>
       <c r="F63" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -4198,7 +4198,7 @@
         <v>503</v>
       </c>
       <c r="F64" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -4218,7 +4218,7 @@
         <v>504</v>
       </c>
       <c r="F65" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
@@ -4238,7 +4238,7 @@
         <v>505</v>
       </c>
       <c r="F66" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -4258,7 +4258,7 @@
         <v>501</v>
       </c>
       <c r="F67" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
@@ -4278,7 +4278,7 @@
         <v>502</v>
       </c>
       <c r="F68" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
@@ -4298,7 +4298,7 @@
         <v>503</v>
       </c>
       <c r="F69" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -4318,7 +4318,7 @@
         <v>504</v>
       </c>
       <c r="F70" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -4338,7 +4338,7 @@
         <v>505</v>
       </c>
       <c r="F71" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
@@ -4358,7 +4358,7 @@
         <v>501</v>
       </c>
       <c r="F72" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
@@ -4378,7 +4378,7 @@
         <v>502</v>
       </c>
       <c r="F73" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -4398,7 +4398,7 @@
         <v>503</v>
       </c>
       <c r="F74" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
@@ -4418,7 +4418,7 @@
         <v>504</v>
       </c>
       <c r="F75" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
@@ -4438,7 +4438,7 @@
         <v>505</v>
       </c>
       <c r="F76" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
@@ -4458,7 +4458,7 @@
         <v>501</v>
       </c>
       <c r="F77" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
@@ -4478,7 +4478,7 @@
         <v>502</v>
       </c>
       <c r="F78" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -4498,7 +4498,7 @@
         <v>503</v>
       </c>
       <c r="F79" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -4518,7 +4518,7 @@
         <v>504</v>
       </c>
       <c r="F80" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -4538,7 +4538,7 @@
         <v>505</v>
       </c>
       <c r="F81" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -4558,7 +4558,7 @@
         <v>501</v>
       </c>
       <c r="F82" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -4578,7 +4578,7 @@
         <v>502</v>
       </c>
       <c r="F83" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
@@ -4598,7 +4598,7 @@
         <v>503</v>
       </c>
       <c r="F84" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -4618,7 +4618,7 @@
         <v>504</v>
       </c>
       <c r="F85" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -4638,7 +4638,7 @@
         <v>505</v>
       </c>
       <c r="F86" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
@@ -4658,7 +4658,7 @@
         <v>501</v>
       </c>
       <c r="F87" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -4678,7 +4678,7 @@
         <v>502</v>
       </c>
       <c r="F88" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -4698,7 +4698,7 @@
         <v>503</v>
       </c>
       <c r="F89" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -4718,7 +4718,7 @@
         <v>504</v>
       </c>
       <c r="F90" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -4738,7 +4738,7 @@
         <v>505</v>
       </c>
       <c r="F91" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -4758,7 +4758,7 @@
         <v>501</v>
       </c>
       <c r="F92" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
@@ -4778,7 +4778,7 @@
         <v>502</v>
       </c>
       <c r="F93" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -4798,7 +4798,7 @@
         <v>503</v>
       </c>
       <c r="F94" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
@@ -4818,7 +4818,7 @@
         <v>504</v>
       </c>
       <c r="F95" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
@@ -4838,7 +4838,7 @@
         <v>505</v>
       </c>
       <c r="F96" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
@@ -4858,7 +4858,7 @@
         <v>501</v>
       </c>
       <c r="F97" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
@@ -4878,7 +4878,7 @@
         <v>502</v>
       </c>
       <c r="F98" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
@@ -4898,7 +4898,7 @@
         <v>503</v>
       </c>
       <c r="F99" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
@@ -4918,7 +4918,7 @@
         <v>504</v>
       </c>
       <c r="F100" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
@@ -4938,7 +4938,7 @@
         <v>505</v>
       </c>
       <c r="F101" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
@@ -4958,7 +4958,7 @@
         <v>501</v>
       </c>
       <c r="F102" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
@@ -4978,7 +4978,7 @@
         <v>502</v>
       </c>
       <c r="F103" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
@@ -4998,7 +4998,7 @@
         <v>503</v>
       </c>
       <c r="F104" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
@@ -5018,7 +5018,7 @@
         <v>504</v>
       </c>
       <c r="F105" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
@@ -5038,7 +5038,7 @@
         <v>505</v>
       </c>
       <c r="F106" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
@@ -5058,7 +5058,7 @@
         <v>501</v>
       </c>
       <c r="F107" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
@@ -5078,7 +5078,7 @@
         <v>502</v>
       </c>
       <c r="F108" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
@@ -5098,7 +5098,7 @@
         <v>503</v>
       </c>
       <c r="F109" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
@@ -5118,7 +5118,7 @@
         <v>504</v>
       </c>
       <c r="F110" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
@@ -5138,7 +5138,7 @@
         <v>505</v>
       </c>
       <c r="F111" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
@@ -5158,7 +5158,7 @@
         <v>501</v>
       </c>
       <c r="F112" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
@@ -5178,7 +5178,7 @@
         <v>502</v>
       </c>
       <c r="F113" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
@@ -5198,7 +5198,7 @@
         <v>503</v>
       </c>
       <c r="F114" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
@@ -5218,7 +5218,7 @@
         <v>504</v>
       </c>
       <c r="F115" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
@@ -5238,7 +5238,7 @@
         <v>505</v>
       </c>
       <c r="F116" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
@@ -5258,7 +5258,7 @@
         <v>501</v>
       </c>
       <c r="F117" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
@@ -5278,7 +5278,7 @@
         <v>502</v>
       </c>
       <c r="F118" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
@@ -5298,7 +5298,7 @@
         <v>503</v>
       </c>
       <c r="F119" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
@@ -5318,7 +5318,7 @@
         <v>504</v>
       </c>
       <c r="F120" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
@@ -5338,7 +5338,7 @@
         <v>505</v>
       </c>
       <c r="F121" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
@@ -5358,7 +5358,7 @@
         <v>501</v>
       </c>
       <c r="F122" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
@@ -5378,7 +5378,7 @@
         <v>502</v>
       </c>
       <c r="F123" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
@@ -5398,7 +5398,7 @@
         <v>503</v>
       </c>
       <c r="F124" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
@@ -5418,7 +5418,7 @@
         <v>504</v>
       </c>
       <c r="F125" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
@@ -5438,7 +5438,7 @@
         <v>505</v>
       </c>
       <c r="F126" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
@@ -5458,7 +5458,7 @@
         <v>501</v>
       </c>
       <c r="F127" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
@@ -5478,7 +5478,7 @@
         <v>502</v>
       </c>
       <c r="F128" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
@@ -5498,7 +5498,7 @@
         <v>503</v>
       </c>
       <c r="F129" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
@@ -5518,7 +5518,7 @@
         <v>504</v>
       </c>
       <c r="F130" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
@@ -5538,7 +5538,7 @@
         <v>505</v>
       </c>
       <c r="F131" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
@@ -5558,7 +5558,7 @@
         <v>501</v>
       </c>
       <c r="F132" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
@@ -5578,7 +5578,7 @@
         <v>502</v>
       </c>
       <c r="F133" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
@@ -5598,7 +5598,7 @@
         <v>503</v>
       </c>
       <c r="F134" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
@@ -5618,7 +5618,7 @@
         <v>504</v>
       </c>
       <c r="F135" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
@@ -5638,7 +5638,7 @@
         <v>505</v>
       </c>
       <c r="F136" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
@@ -5658,7 +5658,7 @@
         <v>501</v>
       </c>
       <c r="F137" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
@@ -5678,7 +5678,7 @@
         <v>502</v>
       </c>
       <c r="F138" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
@@ -5698,7 +5698,7 @@
         <v>503</v>
       </c>
       <c r="F139" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
@@ -5718,7 +5718,7 @@
         <v>504</v>
       </c>
       <c r="F140" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
@@ -5738,7 +5738,7 @@
         <v>505</v>
       </c>
       <c r="F141" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
@@ -5758,7 +5758,7 @@
         <v>501</v>
       </c>
       <c r="F142" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
@@ -5778,7 +5778,7 @@
         <v>502</v>
       </c>
       <c r="F143" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
@@ -5798,7 +5798,7 @@
         <v>503</v>
       </c>
       <c r="F144" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
@@ -5818,7 +5818,7 @@
         <v>504</v>
       </c>
       <c r="F145" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
@@ -5838,7 +5838,7 @@
         <v>505</v>
       </c>
       <c r="F146" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
@@ -5858,7 +5858,7 @@
         <v>501</v>
       </c>
       <c r="F147" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
@@ -5878,7 +5878,7 @@
         <v>502</v>
       </c>
       <c r="F148" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
@@ -5898,7 +5898,7 @@
         <v>503</v>
       </c>
       <c r="F149" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
@@ -5918,7 +5918,7 @@
         <v>504</v>
       </c>
       <c r="F150" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
@@ -5938,7 +5938,7 @@
         <v>505</v>
       </c>
       <c r="F151" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
@@ -5958,7 +5958,7 @@
         <v>501</v>
       </c>
       <c r="F152" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
@@ -5978,7 +5978,7 @@
         <v>502</v>
       </c>
       <c r="F153" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
@@ -5998,7 +5998,7 @@
         <v>503</v>
       </c>
       <c r="F154" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
@@ -6018,7 +6018,7 @@
         <v>504</v>
       </c>
       <c r="F155" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
@@ -6038,7 +6038,7 @@
         <v>505</v>
       </c>
       <c r="F156" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
@@ -6058,7 +6058,7 @@
         <v>501</v>
       </c>
       <c r="F157" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
@@ -6078,7 +6078,7 @@
         <v>502</v>
       </c>
       <c r="F158" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
@@ -6098,7 +6098,7 @@
         <v>503</v>
       </c>
       <c r="F159" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
@@ -6118,7 +6118,7 @@
         <v>504</v>
       </c>
       <c r="F160" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
@@ -6138,7 +6138,7 @@
         <v>505</v>
       </c>
       <c r="F161" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
@@ -6158,7 +6158,7 @@
         <v>501</v>
       </c>
       <c r="F162" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
@@ -6178,7 +6178,7 @@
         <v>502</v>
       </c>
       <c r="F163" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
@@ -6198,7 +6198,7 @@
         <v>503</v>
       </c>
       <c r="F164" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
@@ -6218,7 +6218,7 @@
         <v>504</v>
       </c>
       <c r="F165" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
@@ -6238,7 +6238,7 @@
         <v>505</v>
       </c>
       <c r="F166" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
@@ -6258,7 +6258,7 @@
         <v>501</v>
       </c>
       <c r="F167" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
@@ -6278,7 +6278,7 @@
         <v>502</v>
       </c>
       <c r="F168" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
@@ -6298,7 +6298,7 @@
         <v>503</v>
       </c>
       <c r="F169" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
@@ -6318,7 +6318,7 @@
         <v>504</v>
       </c>
       <c r="F170" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
@@ -6338,7 +6338,7 @@
         <v>505</v>
       </c>
       <c r="F171" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
@@ -6358,7 +6358,7 @@
         <v>501</v>
       </c>
       <c r="F172" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
@@ -6378,7 +6378,7 @@
         <v>502</v>
       </c>
       <c r="F173" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
@@ -6398,7 +6398,7 @@
         <v>503</v>
       </c>
       <c r="F174" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
@@ -6418,7 +6418,7 @@
         <v>504</v>
       </c>
       <c r="F175" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
@@ -6438,7 +6438,7 @@
         <v>505</v>
       </c>
       <c r="F176" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
@@ -6458,7 +6458,7 @@
         <v>501</v>
       </c>
       <c r="F177" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
@@ -6478,7 +6478,7 @@
         <v>502</v>
       </c>
       <c r="F178" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
@@ -6498,7 +6498,7 @@
         <v>503</v>
       </c>
       <c r="F179" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.15">
@@ -6518,7 +6518,7 @@
         <v>504</v>
       </c>
       <c r="F180" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.15">
@@ -6538,7 +6538,7 @@
         <v>505</v>
       </c>
       <c r="F181" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.15">
@@ -6558,7 +6558,7 @@
         <v>501</v>
       </c>
       <c r="F182" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.15">
@@ -6578,7 +6578,7 @@
         <v>502</v>
       </c>
       <c r="F183" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.15">
@@ -6598,7 +6598,7 @@
         <v>503</v>
       </c>
       <c r="F184" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.15">
@@ -6618,7 +6618,7 @@
         <v>504</v>
       </c>
       <c r="F185" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.15">
@@ -6638,7 +6638,7 @@
         <v>505</v>
       </c>
       <c r="F186" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
@@ -6658,7 +6658,7 @@
         <v>501</v>
       </c>
       <c r="F187" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
@@ -6678,7 +6678,7 @@
         <v>502</v>
       </c>
       <c r="F188" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.15">
@@ -6698,7 +6698,7 @@
         <v>503</v>
       </c>
       <c r="F189" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.15">
@@ -6718,7 +6718,7 @@
         <v>504</v>
       </c>
       <c r="F190" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.15">
@@ -6738,7 +6738,7 @@
         <v>505</v>
       </c>
       <c r="F191" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.15">
@@ -6758,7 +6758,7 @@
         <v>501</v>
       </c>
       <c r="F192" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.15">
@@ -6778,7 +6778,7 @@
         <v>502</v>
       </c>
       <c r="F193" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.15">
@@ -6798,7 +6798,7 @@
         <v>503</v>
       </c>
       <c r="F194" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.15">
@@ -6818,7 +6818,7 @@
         <v>504</v>
       </c>
       <c r="F195" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.15">
@@ -6838,7 +6838,7 @@
         <v>505</v>
       </c>
       <c r="F196" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.15">
@@ -6858,7 +6858,7 @@
         <v>501</v>
       </c>
       <c r="F197" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.15">
@@ -6878,7 +6878,7 @@
         <v>502</v>
       </c>
       <c r="F198" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.15">
@@ -6898,7 +6898,7 @@
         <v>503</v>
       </c>
       <c r="F199" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.15">
@@ -6918,7 +6918,7 @@
         <v>504</v>
       </c>
       <c r="F200" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.15">
@@ -6938,7 +6938,7 @@
         <v>505</v>
       </c>
       <c r="F201" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
@@ -6958,7 +6958,7 @@
         <v>501</v>
       </c>
       <c r="F202" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
@@ -6978,7 +6978,7 @@
         <v>502</v>
       </c>
       <c r="F203" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.15">
@@ -6998,7 +6998,7 @@
         <v>503</v>
       </c>
       <c r="F204" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.15">
@@ -7018,7 +7018,7 @@
         <v>504</v>
       </c>
       <c r="F205" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.15">
@@ -7038,7 +7038,7 @@
         <v>505</v>
       </c>
       <c r="F206" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.15">
@@ -7058,7 +7058,7 @@
         <v>501</v>
       </c>
       <c r="F207" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
@@ -7078,7 +7078,7 @@
         <v>502</v>
       </c>
       <c r="F208" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
@@ -7098,7 +7098,7 @@
         <v>503</v>
       </c>
       <c r="F209" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
@@ -7118,7 +7118,7 @@
         <v>504</v>
       </c>
       <c r="F210" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
@@ -7138,7 +7138,7 @@
         <v>505</v>
       </c>
       <c r="F211" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.15">
@@ -7158,7 +7158,7 @@
         <v>501</v>
       </c>
       <c r="F212" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
@@ -7178,7 +7178,7 @@
         <v>502</v>
       </c>
       <c r="F213" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
@@ -7198,7 +7198,7 @@
         <v>503</v>
       </c>
       <c r="F214" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
@@ -7218,7 +7218,7 @@
         <v>504</v>
       </c>
       <c r="F215" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.15">
@@ -7238,7 +7238,7 @@
         <v>505</v>
       </c>
       <c r="F216" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.15">
@@ -7258,7 +7258,7 @@
         <v>501</v>
       </c>
       <c r="F217" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.15">
@@ -7278,7 +7278,7 @@
         <v>502</v>
       </c>
       <c r="F218" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
@@ -7298,7 +7298,7 @@
         <v>503</v>
       </c>
       <c r="F219" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.15">
@@ -7318,7 +7318,7 @@
         <v>504</v>
       </c>
       <c r="F220" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.15">
@@ -7338,7 +7338,7 @@
         <v>505</v>
       </c>
       <c r="F221" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.15">
@@ -7358,7 +7358,7 @@
         <v>501</v>
       </c>
       <c r="F222" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
@@ -7378,7 +7378,7 @@
         <v>502</v>
       </c>
       <c r="F223" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.15">
@@ -7398,7 +7398,7 @@
         <v>503</v>
       </c>
       <c r="F224" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.15">
@@ -7418,7 +7418,7 @@
         <v>504</v>
       </c>
       <c r="F225" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.15">
@@ -7438,7 +7438,7 @@
         <v>505</v>
       </c>
       <c r="F226" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.15">
@@ -7458,7 +7458,7 @@
         <v>501</v>
       </c>
       <c r="F227" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.15">
@@ -7478,7 +7478,7 @@
         <v>502</v>
       </c>
       <c r="F228" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.15">
@@ -7498,7 +7498,7 @@
         <v>503</v>
       </c>
       <c r="F229" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.15">
@@ -7518,7 +7518,7 @@
         <v>504</v>
       </c>
       <c r="F230" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.15">
@@ -7538,7 +7538,7 @@
         <v>505</v>
       </c>
       <c r="F231" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.15">
@@ -7558,7 +7558,7 @@
         <v>501</v>
       </c>
       <c r="F232" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.15">
@@ -7578,7 +7578,7 @@
         <v>502</v>
       </c>
       <c r="F233" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.15">
@@ -7598,7 +7598,7 @@
         <v>503</v>
       </c>
       <c r="F234" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.15">
@@ -7618,7 +7618,7 @@
         <v>504</v>
       </c>
       <c r="F235" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.15">
@@ -7638,7 +7638,7 @@
         <v>505</v>
       </c>
       <c r="F236" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.15">
@@ -7658,7 +7658,7 @@
         <v>501</v>
       </c>
       <c r="F237" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.15">
@@ -7678,7 +7678,7 @@
         <v>502</v>
       </c>
       <c r="F238" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.15">
@@ -7698,7 +7698,7 @@
         <v>503</v>
       </c>
       <c r="F239" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.15">
@@ -7718,7 +7718,7 @@
         <v>504</v>
       </c>
       <c r="F240" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.15">
@@ -7738,7 +7738,7 @@
         <v>505</v>
       </c>
       <c r="F241" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.15">
@@ -7758,7 +7758,7 @@
         <v>501</v>
       </c>
       <c r="F242" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.15">
@@ -7778,7 +7778,7 @@
         <v>502</v>
       </c>
       <c r="F243" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.15">
@@ -7798,7 +7798,7 @@
         <v>503</v>
       </c>
       <c r="F244" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.15">
@@ -7818,7 +7818,7 @@
         <v>504</v>
       </c>
       <c r="F245" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.15">
@@ -7838,7 +7838,7 @@
         <v>505</v>
       </c>
       <c r="F246" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.15">
@@ -7858,7 +7858,7 @@
         <v>501</v>
       </c>
       <c r="F247" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.15">
@@ -7878,7 +7878,7 @@
         <v>502</v>
       </c>
       <c r="F248" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.15">
@@ -7898,7 +7898,7 @@
         <v>503</v>
       </c>
       <c r="F249" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.15">
@@ -7918,7 +7918,7 @@
         <v>504</v>
       </c>
       <c r="F250" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.15">
@@ -7938,7 +7938,7 @@
         <v>505</v>
       </c>
       <c r="F251" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.15">
@@ -7958,7 +7958,7 @@
         <v>501</v>
       </c>
       <c r="F252" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.15">
@@ -7978,7 +7978,7 @@
         <v>502</v>
       </c>
       <c r="F253" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.15">
@@ -7998,7 +7998,7 @@
         <v>503</v>
       </c>
       <c r="F254" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.15">
@@ -8018,7 +8018,7 @@
         <v>504</v>
       </c>
       <c r="F255" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.15">
@@ -8038,7 +8038,7 @@
         <v>505</v>
       </c>
       <c r="F256" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.15">
@@ -8058,7 +8058,7 @@
         <v>501</v>
       </c>
       <c r="F257" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.15">
@@ -8078,7 +8078,7 @@
         <v>502</v>
       </c>
       <c r="F258" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.15">
@@ -8098,7 +8098,7 @@
         <v>503</v>
       </c>
       <c r="F259" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.15">
@@ -8118,7 +8118,7 @@
         <v>504</v>
       </c>
       <c r="F260" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.15">
@@ -8138,7 +8138,7 @@
         <v>505</v>
       </c>
       <c r="F261" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.15">
@@ -8158,7 +8158,7 @@
         <v>501</v>
       </c>
       <c r="F262" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.15">
@@ -8178,7 +8178,7 @@
         <v>502</v>
       </c>
       <c r="F263" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.15">
@@ -8198,7 +8198,7 @@
         <v>503</v>
       </c>
       <c r="F264" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.15">
@@ -8218,7 +8218,7 @@
         <v>504</v>
       </c>
       <c r="F265" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.15">
@@ -8238,7 +8238,7 @@
         <v>505</v>
       </c>
       <c r="F266" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.15">
@@ -8258,7 +8258,7 @@
         <v>501</v>
       </c>
       <c r="F267" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.15">
@@ -8278,7 +8278,7 @@
         <v>502</v>
       </c>
       <c r="F268" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.15">
@@ -8298,7 +8298,7 @@
         <v>503</v>
       </c>
       <c r="F269" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.15">
@@ -8318,7 +8318,7 @@
         <v>504</v>
       </c>
       <c r="F270" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.15">
@@ -8338,7 +8338,7 @@
         <v>505</v>
       </c>
       <c r="F271" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.15">
@@ -8358,7 +8358,7 @@
         <v>501</v>
       </c>
       <c r="F272" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.15">
@@ -8378,7 +8378,7 @@
         <v>502</v>
       </c>
       <c r="F273" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.15">
@@ -8398,7 +8398,7 @@
         <v>503</v>
       </c>
       <c r="F274" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.15">
@@ -8418,7 +8418,7 @@
         <v>504</v>
       </c>
       <c r="F275" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.15">
@@ -8438,7 +8438,7 @@
         <v>505</v>
       </c>
       <c r="F276" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.15">
@@ -8458,7 +8458,7 @@
         <v>501</v>
       </c>
       <c r="F277" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.15">
@@ -8478,7 +8478,7 @@
         <v>502</v>
       </c>
       <c r="F278" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.15">
@@ -8498,7 +8498,7 @@
         <v>503</v>
       </c>
       <c r="F279" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.15">
@@ -8518,7 +8518,7 @@
         <v>504</v>
       </c>
       <c r="F280" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.15">
@@ -8538,7 +8538,7 @@
         <v>505</v>
       </c>
       <c r="F281" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.15">
@@ -8558,7 +8558,7 @@
         <v>501</v>
       </c>
       <c r="F282" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.15">
@@ -8578,7 +8578,7 @@
         <v>502</v>
       </c>
       <c r="F283" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.15">
@@ -8598,7 +8598,7 @@
         <v>503</v>
       </c>
       <c r="F284" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.15">
@@ -8618,7 +8618,7 @@
         <v>504</v>
       </c>
       <c r="F285" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.15">
@@ -8638,7 +8638,7 @@
         <v>505</v>
       </c>
       <c r="F286" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.15">
@@ -8658,7 +8658,7 @@
         <v>501</v>
       </c>
       <c r="F287" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.15">
@@ -8678,7 +8678,7 @@
         <v>502</v>
       </c>
       <c r="F288" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.15">
@@ -8698,7 +8698,7 @@
         <v>503</v>
       </c>
       <c r="F289" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.15">
@@ -8718,7 +8718,7 @@
         <v>504</v>
       </c>
       <c r="F290" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.15">
@@ -8738,7 +8738,7 @@
         <v>505</v>
       </c>
       <c r="F291" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.15">
@@ -8758,7 +8758,7 @@
         <v>501</v>
       </c>
       <c r="F292" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.15">
@@ -8778,7 +8778,7 @@
         <v>502</v>
       </c>
       <c r="F293" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.15">
@@ -8798,7 +8798,7 @@
         <v>503</v>
       </c>
       <c r="F294" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.15">
@@ -8818,7 +8818,7 @@
         <v>504</v>
       </c>
       <c r="F295" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.15">
@@ -8838,7 +8838,7 @@
         <v>505</v>
       </c>
       <c r="F296" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.15">
@@ -8858,7 +8858,7 @@
         <v>501</v>
       </c>
       <c r="F297" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.15">
@@ -8878,7 +8878,7 @@
         <v>502</v>
       </c>
       <c r="F298" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.15">
@@ -8898,7 +8898,7 @@
         <v>503</v>
       </c>
       <c r="F299" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.15">
@@ -8918,7 +8918,7 @@
         <v>504</v>
       </c>
       <c r="F300" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.15">
@@ -8938,7 +8938,7 @@
         <v>505</v>
       </c>
       <c r="F301" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.15">
@@ -8958,7 +8958,7 @@
         <v>501</v>
       </c>
       <c r="F302" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.15">
@@ -8978,7 +8978,7 @@
         <v>502</v>
       </c>
       <c r="F303" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.15">
@@ -8998,7 +8998,7 @@
         <v>503</v>
       </c>
       <c r="F304" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.15">
@@ -9018,7 +9018,7 @@
         <v>504</v>
       </c>
       <c r="F305" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.15">
@@ -9038,7 +9038,7 @@
         <v>505</v>
       </c>
       <c r="F306" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.15">
@@ -9058,7 +9058,7 @@
         <v>501</v>
       </c>
       <c r="F307" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.15">
@@ -9078,7 +9078,7 @@
         <v>502</v>
       </c>
       <c r="F308" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.15">
@@ -9098,7 +9098,7 @@
         <v>503</v>
       </c>
       <c r="F309" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.15">
@@ -9118,7 +9118,7 @@
         <v>504</v>
       </c>
       <c r="F310" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.15">
@@ -9138,7 +9138,7 @@
         <v>505</v>
       </c>
       <c r="F311" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.15">
@@ -9158,7 +9158,7 @@
         <v>501</v>
       </c>
       <c r="F312" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.15">
@@ -9178,7 +9178,7 @@
         <v>502</v>
       </c>
       <c r="F313" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.15">
@@ -9198,7 +9198,7 @@
         <v>503</v>
       </c>
       <c r="F314" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.15">
@@ -9218,7 +9218,7 @@
         <v>504</v>
       </c>
       <c r="F315" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.15">
@@ -9238,7 +9238,7 @@
         <v>505</v>
       </c>
       <c r="F316" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.15">
@@ -9258,7 +9258,7 @@
         <v>501</v>
       </c>
       <c r="F317" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.15">
@@ -9278,7 +9278,7 @@
         <v>502</v>
       </c>
       <c r="F318" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.15">
@@ -9298,7 +9298,7 @@
         <v>503</v>
       </c>
       <c r="F319" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.15">
@@ -9318,7 +9318,7 @@
         <v>504</v>
       </c>
       <c r="F320" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.15">
@@ -9338,7 +9338,7 @@
         <v>505</v>
       </c>
       <c r="F321" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.15">
@@ -9358,7 +9358,7 @@
         <v>501</v>
       </c>
       <c r="F322" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.15">
@@ -9378,7 +9378,7 @@
         <v>502</v>
       </c>
       <c r="F323" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.15">
@@ -9398,7 +9398,7 @@
         <v>503</v>
       </c>
       <c r="F324" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.15">
@@ -9418,7 +9418,7 @@
         <v>504</v>
       </c>
       <c r="F325" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.15">
@@ -9438,7 +9438,7 @@
         <v>505</v>
       </c>
       <c r="F326" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.15">
@@ -9458,7 +9458,7 @@
         <v>501</v>
       </c>
       <c r="F327" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.15">
@@ -9478,7 +9478,7 @@
         <v>502</v>
       </c>
       <c r="F328" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.15">
@@ -9498,7 +9498,7 @@
         <v>503</v>
       </c>
       <c r="F329" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.15">
@@ -9518,7 +9518,7 @@
         <v>504</v>
       </c>
       <c r="F330" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.15">
@@ -9538,7 +9538,7 @@
         <v>505</v>
       </c>
       <c r="F331" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.15">
@@ -9558,7 +9558,7 @@
         <v>501</v>
       </c>
       <c r="F332" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.15">
@@ -9578,7 +9578,7 @@
         <v>502</v>
       </c>
       <c r="F333" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.15">
@@ -9598,7 +9598,7 @@
         <v>503</v>
       </c>
       <c r="F334" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.15">
@@ -9618,7 +9618,7 @@
         <v>505</v>
       </c>
       <c r="F335" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.15">
@@ -9638,7 +9638,7 @@
         <v>503</v>
       </c>
       <c r="F336" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.15">
